--- a/MCP1_pg_mL/BASELINE/20200714.MCP1_pg_mL.AE.BaselineTable.wholeCEA.xlsx
+++ b/MCP1_pg_mL/BASELINE/20200714.MCP1_pg_mL.AE.BaselineTable.wholeCEA.xlsx
@@ -1793,7 +1793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
